--- a/biology/Zoologie/Halominniza_aegyptiaca/Halominniza_aegyptiaca.xlsx
+++ b/biology/Zoologie/Halominniza_aegyptiaca/Halominniza_aegyptiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halominniza aegyptiaca est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce en Égypte, en Israël et en Jordanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce en Égypte, en Israël et en Jordanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 3,4 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 3,4 mm
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Halominniza aegyptiaca aegyptiaca (Ellingsen, 1910) d'Égypte
 Halominniza aegyptiaca litoralis (Beier, 1963) d'Israël et de Jordanie</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Olpium aegyptiacum par  Ellingsen en 1910. Elle est placée dans le genre Halominniza par Mahnert en 1975[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Olpium aegyptiacum par  Ellingsen en 1910. Elle est placée dans le genre Halominniza par Mahnert en 1975.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Égypte.
 </t>
@@ -667,7 +689,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ellingsen, 1910 : Die Pseudoskorpione des Berliner Museums. Mitteilung aus dem Zoologischen Museum in Berlin, vol. 4, p. 357-423 (texte intégral).
 Beier, 1963 : Die Pseudoscorpioniden-Fauna Israels und einiger Angrenzender Gebiete. Israel Journal of Entomology, vol. 12, p. 183-212.</t>
